--- a/tools/master_list_nationality.xlsx
+++ b/tools/master_list_nationality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\Business\Historical Conquest\Video Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438D9E4B-DD73-4F1B-AD6D-D085F9DF7ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D8DE4-20AA-4E53-8319-9A6CAACC13EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_list" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="779">
   <si>
     <t>id</t>
   </si>
@@ -2055,9 +2055,6 @@
     <t>Malian</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t>Portugese</t>
   </si>
   <si>
@@ -2076,9 +2073,6 @@
     <t>Christian</t>
   </si>
   <si>
-    <t>Catholic</t>
-  </si>
-  <si>
     <t>Celtic</t>
   </si>
   <si>
@@ -2106,9 +2100,6 @@
     <t>female/male</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>animal</t>
   </si>
   <si>
@@ -2332,15 +2323,60 @@
   </si>
   <si>
     <t>native_american</t>
+  </si>
+  <si>
+    <t>European, Caucasian</t>
+  </si>
+  <si>
+    <t>American, Caucasian</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>American, Asian</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>Asian, Caucasian</t>
+  </si>
+  <si>
+    <t>American, Black</t>
+  </si>
+  <si>
+    <t>Asian, Arab</t>
+  </si>
+  <si>
+    <t>Asian, Indian</t>
+  </si>
+  <si>
+    <t>Polynesian</t>
+  </si>
+  <si>
+    <t>American, Hispanic</t>
+  </si>
+  <si>
+    <t>African</t>
+  </si>
+  <si>
+    <t>Norse paganism</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2365,13 +2401,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2688,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F313" sqref="F313"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F326" sqref="F326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2710,16 +2747,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2736,13 +2773,13 @@
         <v>669</v>
       </c>
       <c r="E2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2758,11 +2795,14 @@
       <c r="D3" t="s">
         <v>672</v>
       </c>
+      <c r="E3" t="s">
+        <v>766</v>
+      </c>
       <c r="F3" t="s">
         <v>672</v>
       </c>
       <c r="G3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2778,11 +2818,14 @@
       <c r="D4" t="s">
         <v>672</v>
       </c>
+      <c r="E4" t="s">
+        <v>766</v>
+      </c>
       <c r="F4" t="s">
         <v>672</v>
       </c>
       <c r="G4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2798,8 +2841,14 @@
       <c r="D5" t="s">
         <v>672</v>
       </c>
+      <c r="E5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F5" t="s">
+        <v>672</v>
+      </c>
       <c r="G5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2813,10 +2862,16 @@
         <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>747</v>
+        <v>744</v>
+      </c>
+      <c r="E6" t="s">
+        <v>770</v>
+      </c>
+      <c r="F6" t="s">
+        <v>672</v>
       </c>
       <c r="G6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2832,8 +2887,14 @@
       <c r="D7" t="s">
         <v>672</v>
       </c>
+      <c r="E7" t="s">
+        <v>766</v>
+      </c>
+      <c r="F7" t="s">
+        <v>672</v>
+      </c>
       <c r="G7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2849,8 +2910,14 @@
       <c r="D8" t="s">
         <v>672</v>
       </c>
+      <c r="E8" t="s">
+        <v>766</v>
+      </c>
+      <c r="F8" t="s">
+        <v>672</v>
+      </c>
       <c r="G8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2866,8 +2933,14 @@
       <c r="D9" t="s">
         <v>672</v>
       </c>
+      <c r="E9" t="s">
+        <v>766</v>
+      </c>
+      <c r="F9" t="s">
+        <v>672</v>
+      </c>
       <c r="G9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2883,8 +2956,11 @@
       <c r="D10" t="s">
         <v>661</v>
       </c>
+      <c r="E10" t="s">
+        <v>767</v>
+      </c>
       <c r="G10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2900,8 +2976,11 @@
       <c r="D11" t="s">
         <v>669</v>
       </c>
+      <c r="E11" t="s">
+        <v>766</v>
+      </c>
       <c r="G11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2917,8 +2996,11 @@
       <c r="D12" t="s">
         <v>661</v>
       </c>
+      <c r="E12" t="s">
+        <v>767</v>
+      </c>
       <c r="G12" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2934,8 +3016,14 @@
       <c r="D13" t="s">
         <v>661</v>
       </c>
+      <c r="E13" t="s">
+        <v>767</v>
+      </c>
+      <c r="F13" t="s">
+        <v>681</v>
+      </c>
       <c r="G13" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2951,8 +3039,14 @@
       <c r="D14" t="s">
         <v>661</v>
       </c>
+      <c r="E14" t="s">
+        <v>767</v>
+      </c>
+      <c r="F14" t="s">
+        <v>681</v>
+      </c>
       <c r="G14" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2968,8 +3062,14 @@
       <c r="D15" t="s">
         <v>669</v>
       </c>
+      <c r="E15" t="s">
+        <v>766</v>
+      </c>
+      <c r="F15" t="s">
+        <v>681</v>
+      </c>
       <c r="G15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2985,8 +3085,14 @@
       <c r="D16" t="s">
         <v>669</v>
       </c>
+      <c r="E16" t="s">
+        <v>766</v>
+      </c>
+      <c r="F16" t="s">
+        <v>681</v>
+      </c>
       <c r="G16" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3002,8 +3108,14 @@
       <c r="D17" t="s">
         <v>661</v>
       </c>
+      <c r="E17" t="s">
+        <v>767</v>
+      </c>
+      <c r="F17" t="s">
+        <v>681</v>
+      </c>
       <c r="G17" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3019,8 +3131,14 @@
       <c r="D18" t="s">
         <v>669</v>
       </c>
+      <c r="E18" t="s">
+        <v>766</v>
+      </c>
+      <c r="F18" t="s">
+        <v>681</v>
+      </c>
       <c r="G18" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3036,8 +3154,14 @@
       <c r="D19" t="s">
         <v>669</v>
       </c>
+      <c r="E19" t="s">
+        <v>766</v>
+      </c>
+      <c r="F19" t="s">
+        <v>681</v>
+      </c>
       <c r="G19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3048,13 +3172,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D20" t="s">
         <v>669</v>
       </c>
+      <c r="E20" t="s">
+        <v>766</v>
+      </c>
+      <c r="F20" t="s">
+        <v>681</v>
+      </c>
       <c r="G20" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3070,8 +3200,14 @@
       <c r="D21" t="s">
         <v>669</v>
       </c>
+      <c r="E21" t="s">
+        <v>766</v>
+      </c>
+      <c r="F21" t="s">
+        <v>681</v>
+      </c>
       <c r="G21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3087,8 +3223,14 @@
       <c r="D22" t="s">
         <v>661</v>
       </c>
+      <c r="E22" t="s">
+        <v>767</v>
+      </c>
+      <c r="F22" t="s">
+        <v>681</v>
+      </c>
       <c r="G22" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3105,10 +3247,10 @@
         <v>661</v>
       </c>
       <c r="E23" t="s">
-        <v>665</v>
+        <v>769</v>
       </c>
       <c r="G23" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3122,10 +3264,13 @@
         <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>697</v>
+        <v>694</v>
+      </c>
+      <c r="E24" t="s">
+        <v>766</v>
       </c>
       <c r="G24" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3139,10 +3284,13 @@
         <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>698</v>
+        <v>695</v>
+      </c>
+      <c r="E25" t="s">
+        <v>766</v>
       </c>
       <c r="G25" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3158,8 +3306,11 @@
       <c r="D26" t="s">
         <v>669</v>
       </c>
+      <c r="E26" t="s">
+        <v>766</v>
+      </c>
       <c r="G26" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3175,8 +3326,14 @@
       <c r="D27" t="s">
         <v>661</v>
       </c>
+      <c r="E27" t="s">
+        <v>767</v>
+      </c>
+      <c r="F27" t="s">
+        <v>681</v>
+      </c>
       <c r="G27" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3192,8 +3349,14 @@
       <c r="D28" t="s">
         <v>661</v>
       </c>
+      <c r="E28" t="s">
+        <v>767</v>
+      </c>
+      <c r="F28" t="s">
+        <v>681</v>
+      </c>
       <c r="G28" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3209,8 +3372,14 @@
       <c r="D29" t="s">
         <v>661</v>
       </c>
+      <c r="E29" t="s">
+        <v>767</v>
+      </c>
+      <c r="F29" t="s">
+        <v>681</v>
+      </c>
       <c r="G29" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3226,8 +3395,14 @@
       <c r="D30" t="s">
         <v>661</v>
       </c>
+      <c r="E30" t="s">
+        <v>767</v>
+      </c>
+      <c r="F30" t="s">
+        <v>681</v>
+      </c>
       <c r="G30" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3241,10 +3416,13 @@
         <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>697</v>
+        <v>694</v>
+      </c>
+      <c r="E31" t="s">
+        <v>766</v>
       </c>
       <c r="G31" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3255,13 +3433,19 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D32" t="s">
         <v>668</v>
       </c>
+      <c r="E32" t="s">
+        <v>766</v>
+      </c>
+      <c r="F32" t="s">
+        <v>681</v>
+      </c>
       <c r="G32" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3277,8 +3461,14 @@
       <c r="D33" t="s">
         <v>667</v>
       </c>
+      <c r="E33" t="s">
+        <v>771</v>
+      </c>
+      <c r="F33" t="s">
+        <v>681</v>
+      </c>
       <c r="G33" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3294,8 +3484,11 @@
       <c r="D34" t="s">
         <v>661</v>
       </c>
+      <c r="E34" t="s">
+        <v>661</v>
+      </c>
       <c r="G34" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3311,8 +3504,11 @@
       <c r="D35" t="s">
         <v>661</v>
       </c>
+      <c r="E35" t="s">
+        <v>661</v>
+      </c>
       <c r="G35" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3328,8 +3524,14 @@
       <c r="D36" t="s">
         <v>661</v>
       </c>
+      <c r="E36" t="s">
+        <v>767</v>
+      </c>
+      <c r="F36" t="s">
+        <v>681</v>
+      </c>
       <c r="G36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3345,8 +3547,14 @@
       <c r="D37" t="s">
         <v>661</v>
       </c>
+      <c r="E37" t="s">
+        <v>767</v>
+      </c>
+      <c r="F37" t="s">
+        <v>681</v>
+      </c>
       <c r="G37" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3362,8 +3570,14 @@
       <c r="D38" t="s">
         <v>661</v>
       </c>
+      <c r="E38" t="s">
+        <v>767</v>
+      </c>
+      <c r="F38" t="s">
+        <v>681</v>
+      </c>
       <c r="G38" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3379,8 +3593,14 @@
       <c r="D39" t="s">
         <v>661</v>
       </c>
+      <c r="E39" t="s">
+        <v>767</v>
+      </c>
+      <c r="F39" t="s">
+        <v>681</v>
+      </c>
       <c r="G39" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3396,8 +3616,14 @@
       <c r="D40" t="s">
         <v>661</v>
       </c>
+      <c r="E40" t="s">
+        <v>767</v>
+      </c>
+      <c r="F40" t="s">
+        <v>681</v>
+      </c>
       <c r="G40" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3413,8 +3639,11 @@
       <c r="D41" t="s">
         <v>661</v>
       </c>
+      <c r="E41" t="s">
+        <v>661</v>
+      </c>
       <c r="G41" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3430,8 +3659,11 @@
       <c r="D42" t="s">
         <v>661</v>
       </c>
+      <c r="E42" t="s">
+        <v>661</v>
+      </c>
       <c r="G42" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3447,8 +3679,14 @@
       <c r="D43" t="s">
         <v>661</v>
       </c>
+      <c r="E43" t="s">
+        <v>767</v>
+      </c>
+      <c r="F43" t="s">
+        <v>681</v>
+      </c>
       <c r="G43" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3464,8 +3702,14 @@
       <c r="D44" t="s">
         <v>661</v>
       </c>
+      <c r="E44" t="s">
+        <v>767</v>
+      </c>
+      <c r="F44" t="s">
+        <v>681</v>
+      </c>
       <c r="G44" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3481,8 +3725,14 @@
       <c r="D45" t="s">
         <v>661</v>
       </c>
+      <c r="E45" t="s">
+        <v>767</v>
+      </c>
+      <c r="F45" t="s">
+        <v>681</v>
+      </c>
       <c r="G45" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3498,8 +3748,14 @@
       <c r="D46" t="s">
         <v>661</v>
       </c>
+      <c r="E46" t="s">
+        <v>767</v>
+      </c>
+      <c r="F46" t="s">
+        <v>681</v>
+      </c>
       <c r="G46" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3515,8 +3771,14 @@
       <c r="D47" t="s">
         <v>661</v>
       </c>
+      <c r="E47" t="s">
+        <v>767</v>
+      </c>
+      <c r="F47" t="s">
+        <v>681</v>
+      </c>
       <c r="G47" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3530,10 +3792,13 @@
         <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>718</v>
+        <v>715</v>
+      </c>
+      <c r="E48" t="s">
+        <v>767</v>
       </c>
       <c r="G48" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3549,8 +3814,14 @@
       <c r="D49" t="s">
         <v>661</v>
       </c>
+      <c r="E49" t="s">
+        <v>767</v>
+      </c>
+      <c r="F49" t="s">
+        <v>681</v>
+      </c>
       <c r="G49" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3566,8 +3837,14 @@
       <c r="D50" t="s">
         <v>661</v>
       </c>
+      <c r="E50" t="s">
+        <v>767</v>
+      </c>
+      <c r="F50" t="s">
+        <v>681</v>
+      </c>
       <c r="G50" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3583,8 +3860,14 @@
       <c r="D51" t="s">
         <v>661</v>
       </c>
+      <c r="E51" t="s">
+        <v>767</v>
+      </c>
+      <c r="F51" t="s">
+        <v>681</v>
+      </c>
       <c r="G51" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3600,8 +3883,14 @@
       <c r="D52" t="s">
         <v>661</v>
       </c>
+      <c r="E52" t="s">
+        <v>767</v>
+      </c>
+      <c r="F52" t="s">
+        <v>681</v>
+      </c>
       <c r="G52" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3615,10 +3904,13 @@
         <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>713</v>
+        <v>710</v>
+      </c>
+      <c r="E53" t="s">
+        <v>766</v>
       </c>
       <c r="G53" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3634,8 +3926,14 @@
       <c r="D54" t="s">
         <v>671</v>
       </c>
+      <c r="E54" t="s">
+        <v>766</v>
+      </c>
+      <c r="F54" t="s">
+        <v>681</v>
+      </c>
       <c r="G54" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3651,8 +3949,14 @@
       <c r="D55" t="s">
         <v>661</v>
       </c>
+      <c r="E55" t="s">
+        <v>766</v>
+      </c>
+      <c r="F55" t="s">
+        <v>681</v>
+      </c>
       <c r="G55" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3666,10 +3970,16 @@
         <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>748</v>
+        <v>745</v>
+      </c>
+      <c r="E56" t="s">
+        <v>657</v>
+      </c>
+      <c r="F56" t="s">
+        <v>683</v>
       </c>
       <c r="G56" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3683,10 +3993,16 @@
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>749</v>
+        <v>746</v>
+      </c>
+      <c r="E57" t="s">
+        <v>767</v>
+      </c>
+      <c r="F57" t="s">
+        <v>681</v>
       </c>
       <c r="G57" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3702,8 +4018,14 @@
       <c r="D58" t="s">
         <v>661</v>
       </c>
+      <c r="E58" t="s">
+        <v>767</v>
+      </c>
+      <c r="F58" t="s">
+        <v>681</v>
+      </c>
       <c r="G58" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3717,10 +4039,16 @@
         <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>750</v>
+        <v>747</v>
+      </c>
+      <c r="E59" t="s">
+        <v>766</v>
+      </c>
+      <c r="F59" t="s">
+        <v>681</v>
       </c>
       <c r="G59" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3736,8 +4064,14 @@
       <c r="D60" t="s">
         <v>661</v>
       </c>
+      <c r="E60" t="s">
+        <v>767</v>
+      </c>
+      <c r="F60" t="s">
+        <v>681</v>
+      </c>
       <c r="G60" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3753,8 +4087,14 @@
       <c r="D61" t="s">
         <v>661</v>
       </c>
+      <c r="E61" t="s">
+        <v>767</v>
+      </c>
+      <c r="F61" t="s">
+        <v>681</v>
+      </c>
       <c r="G61" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3770,8 +4110,14 @@
       <c r="D62" t="s">
         <v>661</v>
       </c>
+      <c r="E62" t="s">
+        <v>767</v>
+      </c>
+      <c r="F62" t="s">
+        <v>681</v>
+      </c>
       <c r="G62" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3787,11 +4133,14 @@
       <c r="D63" t="s">
         <v>663</v>
       </c>
+      <c r="E63" t="s">
+        <v>766</v>
+      </c>
       <c r="F63" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G63" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3807,11 +4156,14 @@
       <c r="D64" t="s">
         <v>663</v>
       </c>
+      <c r="E64" t="s">
+        <v>766</v>
+      </c>
       <c r="F64" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G64" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3827,11 +4179,14 @@
       <c r="D65" s="2" t="s">
         <v>661</v>
       </c>
+      <c r="E65" t="s">
+        <v>767</v>
+      </c>
       <c r="F65" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G65" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3847,11 +4202,14 @@
       <c r="D66" s="2" t="s">
         <v>661</v>
       </c>
+      <c r="E66" t="s">
+        <v>767</v>
+      </c>
       <c r="F66" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G66" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3867,11 +4225,14 @@
       <c r="D67" s="2" t="s">
         <v>661</v>
       </c>
+      <c r="E67" t="s">
+        <v>767</v>
+      </c>
       <c r="F67" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G67" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3887,11 +4248,14 @@
       <c r="D68" s="2" t="s">
         <v>661</v>
       </c>
+      <c r="E68" t="s">
+        <v>767</v>
+      </c>
       <c r="F68" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G68" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3907,11 +4271,14 @@
       <c r="D69" s="2" t="s">
         <v>661</v>
       </c>
+      <c r="E69" t="s">
+        <v>767</v>
+      </c>
       <c r="F69" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G69" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3927,11 +4294,14 @@
       <c r="D70" s="2" t="s">
         <v>661</v>
       </c>
+      <c r="E70" t="s">
+        <v>767</v>
+      </c>
       <c r="F70" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G70" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3945,10 +4315,16 @@
         <v>35</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
+      </c>
+      <c r="E71" t="s">
+        <v>767</v>
+      </c>
+      <c r="F71" t="s">
+        <v>681</v>
       </c>
       <c r="G71" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3964,11 +4340,14 @@
       <c r="D72" s="2" t="s">
         <v>661</v>
       </c>
+      <c r="E72" t="s">
+        <v>767</v>
+      </c>
       <c r="F72" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G72" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3984,8 +4363,14 @@
       <c r="D73" s="2" t="s">
         <v>669</v>
       </c>
+      <c r="E73" t="s">
+        <v>766</v>
+      </c>
+      <c r="F73" t="s">
+        <v>681</v>
+      </c>
       <c r="G73" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4001,8 +4386,14 @@
       <c r="D74" t="s">
         <v>661</v>
       </c>
+      <c r="E74" t="s">
+        <v>767</v>
+      </c>
+      <c r="F74" t="s">
+        <v>681</v>
+      </c>
       <c r="G74" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4018,8 +4409,14 @@
       <c r="D75" t="s">
         <v>661</v>
       </c>
+      <c r="E75" t="s">
+        <v>767</v>
+      </c>
+      <c r="F75" t="s">
+        <v>681</v>
+      </c>
       <c r="G75" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4035,8 +4432,14 @@
       <c r="D76" t="s">
         <v>671</v>
       </c>
+      <c r="E76" t="s">
+        <v>766</v>
+      </c>
+      <c r="F76" t="s">
+        <v>681</v>
+      </c>
       <c r="G76" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4052,8 +4455,14 @@
       <c r="D77" t="s">
         <v>661</v>
       </c>
+      <c r="E77" t="s">
+        <v>767</v>
+      </c>
+      <c r="F77" t="s">
+        <v>681</v>
+      </c>
       <c r="G77" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4069,8 +4478,14 @@
       <c r="D78" t="s">
         <v>661</v>
       </c>
+      <c r="E78" t="s">
+        <v>767</v>
+      </c>
+      <c r="F78" t="s">
+        <v>681</v>
+      </c>
       <c r="G78" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4086,8 +4501,14 @@
       <c r="D79" t="s">
         <v>661</v>
       </c>
+      <c r="E79" t="s">
+        <v>767</v>
+      </c>
+      <c r="F79" t="s">
+        <v>681</v>
+      </c>
       <c r="G79" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4103,11 +4524,14 @@
       <c r="D80" t="s">
         <v>659</v>
       </c>
+      <c r="E80" t="s">
+        <v>766</v>
+      </c>
       <c r="F80" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4121,13 +4545,16 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>708</v>
+        <v>705</v>
+      </c>
+      <c r="E81" t="s">
+        <v>657</v>
       </c>
       <c r="F81" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G81" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4143,8 +4570,14 @@
       <c r="D82" t="s">
         <v>669</v>
       </c>
+      <c r="E82" t="s">
+        <v>766</v>
+      </c>
+      <c r="F82" t="s">
+        <v>700</v>
+      </c>
       <c r="G82" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4158,10 +4591,16 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>751</v>
+        <v>748</v>
+      </c>
+      <c r="E83" t="s">
+        <v>766</v>
+      </c>
+      <c r="F83" t="s">
+        <v>681</v>
       </c>
       <c r="G83" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4177,8 +4616,14 @@
       <c r="D84" t="s">
         <v>671</v>
       </c>
+      <c r="E84" t="s">
+        <v>766</v>
+      </c>
+      <c r="F84" t="s">
+        <v>681</v>
+      </c>
       <c r="G84" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4194,8 +4639,14 @@
       <c r="D85" t="s">
         <v>669</v>
       </c>
+      <c r="E85" t="s">
+        <v>766</v>
+      </c>
+      <c r="F85" t="s">
+        <v>681</v>
+      </c>
       <c r="G85" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4209,10 +4660,16 @@
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>697</v>
+        <v>694</v>
+      </c>
+      <c r="E86" t="s">
+        <v>766</v>
+      </c>
+      <c r="F86" t="s">
+        <v>681</v>
       </c>
       <c r="G86" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4226,13 +4683,16 @@
         <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>752</v>
+        <v>749</v>
+      </c>
+      <c r="E87" t="s">
+        <v>766</v>
       </c>
       <c r="F87" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G87" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4248,11 +4708,14 @@
       <c r="D88" t="s">
         <v>669</v>
       </c>
+      <c r="E88" t="s">
+        <v>766</v>
+      </c>
       <c r="F88" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G88" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4269,13 +4732,13 @@
         <v>661</v>
       </c>
       <c r="E89" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="F89" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G89" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4291,11 +4754,14 @@
       <c r="D90" t="s">
         <v>661</v>
       </c>
+      <c r="E90" t="s">
+        <v>767</v>
+      </c>
       <c r="F90" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G90" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4309,13 +4775,16 @@
         <v>602</v>
       </c>
       <c r="D91" t="s">
-        <v>700</v>
+        <v>697</v>
+      </c>
+      <c r="E91" t="s">
+        <v>766</v>
       </c>
       <c r="F91" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G91" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4331,8 +4800,11 @@
       <c r="D92" t="s">
         <v>669</v>
       </c>
+      <c r="E92" t="s">
+        <v>770</v>
+      </c>
       <c r="G92" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4348,8 +4820,11 @@
       <c r="D93" t="s">
         <v>658</v>
       </c>
+      <c r="E93" t="s">
+        <v>768</v>
+      </c>
       <c r="G93" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4365,8 +4840,11 @@
       <c r="D94" t="s">
         <v>661</v>
       </c>
+      <c r="E94" t="s">
+        <v>661</v>
+      </c>
       <c r="G94" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4382,8 +4860,11 @@
       <c r="D95" t="s">
         <v>666</v>
       </c>
+      <c r="E95" t="s">
+        <v>768</v>
+      </c>
       <c r="G95" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4400,13 +4881,13 @@
         <v>661</v>
       </c>
       <c r="E96" t="s">
-        <v>693</v>
+        <v>772</v>
       </c>
       <c r="F96" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G96" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4422,11 +4903,14 @@
       <c r="D97" t="s">
         <v>661</v>
       </c>
+      <c r="E97" t="s">
+        <v>661</v>
+      </c>
       <c r="F97" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G97" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4442,11 +4926,14 @@
       <c r="D98" t="s">
         <v>670</v>
       </c>
+      <c r="E98" t="s">
+        <v>661</v>
+      </c>
       <c r="F98" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G98" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4463,13 +4950,13 @@
         <v>661</v>
       </c>
       <c r="E99" t="s">
-        <v>693</v>
+        <v>772</v>
       </c>
       <c r="F99" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G99" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4483,13 +4970,16 @@
         <v>614</v>
       </c>
       <c r="D100" t="s">
-        <v>720</v>
+        <v>717</v>
+      </c>
+      <c r="E100" t="s">
+        <v>766</v>
       </c>
       <c r="F100" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G100" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4503,13 +4993,16 @@
         <v>616</v>
       </c>
       <c r="D101" t="s">
-        <v>721</v>
+        <v>718</v>
+      </c>
+      <c r="E101" t="s">
+        <v>766</v>
       </c>
       <c r="F101" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G101" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4523,13 +5016,16 @@
         <v>618</v>
       </c>
       <c r="D102" t="s">
-        <v>722</v>
+        <v>719</v>
+      </c>
+      <c r="E102" t="s">
+        <v>768</v>
       </c>
       <c r="F102" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G102" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4545,8 +5041,14 @@
       <c r="D103" t="s">
         <v>668</v>
       </c>
+      <c r="E103" t="s">
+        <v>766</v>
+      </c>
+      <c r="F103" t="s">
+        <v>681</v>
+      </c>
       <c r="G103" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4560,10 +5062,16 @@
         <v>622</v>
       </c>
       <c r="D104" t="s">
-        <v>753</v>
+        <v>750</v>
+      </c>
+      <c r="E104" t="s">
+        <v>766</v>
+      </c>
+      <c r="F104" t="s">
+        <v>681</v>
       </c>
       <c r="G104" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4579,8 +5087,14 @@
       <c r="D105" t="s">
         <v>674</v>
       </c>
+      <c r="E105" t="s">
+        <v>766</v>
+      </c>
+      <c r="F105" t="s">
+        <v>681</v>
+      </c>
       <c r="G105" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4594,10 +5108,16 @@
         <v>626</v>
       </c>
       <c r="D106" t="s">
-        <v>753</v>
+        <v>750</v>
+      </c>
+      <c r="E106" t="s">
+        <v>766</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>778</v>
       </c>
       <c r="G106" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4613,8 +5133,14 @@
       <c r="D107" t="s">
         <v>659</v>
       </c>
+      <c r="E107" t="s">
+        <v>766</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>778</v>
+      </c>
       <c r="G107" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4630,8 +5156,14 @@
       <c r="D108" t="s">
         <v>661</v>
       </c>
+      <c r="E108" t="s">
+        <v>767</v>
+      </c>
+      <c r="F108" t="s">
+        <v>681</v>
+      </c>
       <c r="G108" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4645,10 +5177,16 @@
         <v>634</v>
       </c>
       <c r="D109" t="s">
-        <v>754</v>
+        <v>751</v>
+      </c>
+      <c r="E109" t="s">
+        <v>766</v>
+      </c>
+      <c r="F109" t="s">
+        <v>681</v>
       </c>
       <c r="G109" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4664,8 +5202,14 @@
       <c r="D110" t="s">
         <v>661</v>
       </c>
+      <c r="E110" t="s">
+        <v>767</v>
+      </c>
+      <c r="F110" t="s">
+        <v>681</v>
+      </c>
       <c r="G110" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4681,8 +5225,14 @@
       <c r="D111" t="s">
         <v>661</v>
       </c>
+      <c r="E111" t="s">
+        <v>767</v>
+      </c>
+      <c r="F111" t="s">
+        <v>681</v>
+      </c>
       <c r="G111" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4699,10 +5249,10 @@
         <v>661</v>
       </c>
       <c r="E112" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G112" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4718,8 +5268,11 @@
       <c r="D113" t="s">
         <v>658</v>
       </c>
+      <c r="E113" t="s">
+        <v>768</v>
+      </c>
       <c r="G113" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4735,8 +5288,14 @@
       <c r="D114" t="s">
         <v>661</v>
       </c>
+      <c r="E114" t="s">
+        <v>767</v>
+      </c>
+      <c r="F114" t="s">
+        <v>681</v>
+      </c>
       <c r="G114" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4752,8 +5311,11 @@
       <c r="D115" t="s">
         <v>670</v>
       </c>
+      <c r="E115" t="s">
+        <v>766</v>
+      </c>
       <c r="G115" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4767,10 +5329,13 @@
         <v>646</v>
       </c>
       <c r="D116" t="s">
-        <v>701</v>
+        <v>698</v>
+      </c>
+      <c r="E116" t="s">
+        <v>766</v>
       </c>
       <c r="G116" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4787,10 +5352,13 @@
         <v>661</v>
       </c>
       <c r="E117" t="s">
-        <v>676</v>
+        <v>772</v>
+      </c>
+      <c r="F117" t="s">
+        <v>681</v>
       </c>
       <c r="G117" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4807,10 +5375,13 @@
         <v>661</v>
       </c>
       <c r="E118" t="s">
-        <v>676</v>
+        <v>772</v>
+      </c>
+      <c r="F118" t="s">
+        <v>681</v>
       </c>
       <c r="G118" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4826,8 +5397,14 @@
       <c r="D119" t="s">
         <v>661</v>
       </c>
+      <c r="E119" t="s">
+        <v>767</v>
+      </c>
+      <c r="F119" t="s">
+        <v>681</v>
+      </c>
       <c r="G119" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4843,11 +5420,14 @@
       <c r="D120" t="s">
         <v>663</v>
       </c>
+      <c r="E120" t="s">
+        <v>766</v>
+      </c>
       <c r="F120" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G120" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4864,13 +5444,13 @@
         <v>661</v>
       </c>
       <c r="E121" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="F121" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G121" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4887,10 +5467,13 @@
         <v>661</v>
       </c>
       <c r="E122" t="s">
-        <v>676</v>
+        <v>772</v>
+      </c>
+      <c r="F122" t="s">
+        <v>681</v>
       </c>
       <c r="G122" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4906,11 +5489,14 @@
       <c r="D123" t="s">
         <v>661</v>
       </c>
+      <c r="E123" t="s">
+        <v>767</v>
+      </c>
       <c r="F123" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G123" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4926,11 +5512,14 @@
       <c r="D124" t="s">
         <v>661</v>
       </c>
+      <c r="E124" t="s">
+        <v>767</v>
+      </c>
       <c r="F124" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G124" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4944,13 +5533,16 @@
         <v>533</v>
       </c>
       <c r="D125" t="s">
-        <v>700</v>
+        <v>697</v>
+      </c>
+      <c r="E125" t="s">
+        <v>766</v>
       </c>
       <c r="F125" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G125" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4967,10 +5559,10 @@
         <v>272</v>
       </c>
       <c r="E126" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="G126" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4987,10 +5579,10 @@
         <v>661</v>
       </c>
       <c r="E127" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G127" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -5006,8 +5598,11 @@
       <c r="D128" t="s">
         <v>659</v>
       </c>
+      <c r="E128" t="s">
+        <v>766</v>
+      </c>
       <c r="G128" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -5023,8 +5618,11 @@
       <c r="D129" t="s">
         <v>659</v>
       </c>
+      <c r="E129" t="s">
+        <v>766</v>
+      </c>
       <c r="G129" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5040,8 +5638,11 @@
       <c r="D130" t="s">
         <v>667</v>
       </c>
+      <c r="E130" t="s">
+        <v>771</v>
+      </c>
       <c r="G130" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5057,11 +5658,14 @@
       <c r="D131" t="s">
         <v>661</v>
       </c>
+      <c r="E131" t="s">
+        <v>767</v>
+      </c>
       <c r="F131" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G131" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5077,11 +5681,14 @@
       <c r="D132" t="s">
         <v>661</v>
       </c>
+      <c r="E132" t="s">
+        <v>767</v>
+      </c>
       <c r="F132" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G132" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5097,8 +5704,11 @@
       <c r="D133" t="s">
         <v>665</v>
       </c>
+      <c r="E133" t="s">
+        <v>768</v>
+      </c>
       <c r="G133" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5114,11 +5724,14 @@
       <c r="D134" s="2" t="s">
         <v>661</v>
       </c>
+      <c r="E134" t="s">
+        <v>767</v>
+      </c>
       <c r="F134" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G134" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5132,10 +5745,13 @@
         <v>545</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>768</v>
       </c>
       <c r="G135" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5151,11 +5767,14 @@
       <c r="D136" t="s">
         <v>672</v>
       </c>
+      <c r="E136" t="s">
+        <v>766</v>
+      </c>
       <c r="F136" t="s">
         <v>672</v>
       </c>
       <c r="G136" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5171,11 +5790,14 @@
       <c r="D137" t="s">
         <v>663</v>
       </c>
+      <c r="E137" t="s">
+        <v>766</v>
+      </c>
       <c r="F137" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G137" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5191,11 +5813,14 @@
       <c r="D138" t="s">
         <v>670</v>
       </c>
+      <c r="E138" t="s">
+        <v>766</v>
+      </c>
       <c r="F138" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G138" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5211,11 +5836,14 @@
       <c r="D139" t="s">
         <v>669</v>
       </c>
+      <c r="E139" t="s">
+        <v>766</v>
+      </c>
       <c r="F139" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G139" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5229,13 +5857,16 @@
         <v>555</v>
       </c>
       <c r="D140" t="s">
-        <v>701</v>
+        <v>698</v>
+      </c>
+      <c r="E140" t="s">
+        <v>766</v>
       </c>
       <c r="F140" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G140" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5249,13 +5880,16 @@
         <v>557</v>
       </c>
       <c r="D141" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="E141" t="s">
+        <v>766</v>
       </c>
       <c r="F141" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G141" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5269,13 +5903,16 @@
         <v>559</v>
       </c>
       <c r="D142" t="s">
-        <v>738</v>
+        <v>735</v>
+      </c>
+      <c r="E142" t="s">
+        <v>766</v>
       </c>
       <c r="F142" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G142" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5291,11 +5928,14 @@
       <c r="D143" t="s">
         <v>675</v>
       </c>
+      <c r="E143" t="s">
+        <v>777</v>
+      </c>
       <c r="F143" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G143" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5309,13 +5949,16 @@
         <v>563</v>
       </c>
       <c r="D144" t="s">
-        <v>740</v>
+        <v>737</v>
+      </c>
+      <c r="E144" t="s">
+        <v>767</v>
       </c>
       <c r="F144" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G144" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5331,8 +5974,14 @@
       <c r="D145" t="s">
         <v>669</v>
       </c>
+      <c r="E145" t="s">
+        <v>766</v>
+      </c>
+      <c r="F145" t="s">
+        <v>681</v>
+      </c>
       <c r="G145" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5348,11 +5997,14 @@
       <c r="D146" t="s">
         <v>661</v>
       </c>
+      <c r="E146" t="s">
+        <v>767</v>
+      </c>
       <c r="F146" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G146" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5368,11 +6020,14 @@
       <c r="D147" t="s">
         <v>665</v>
       </c>
+      <c r="E147" t="s">
+        <v>768</v>
+      </c>
       <c r="F147" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G147" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5389,10 +6044,10 @@
         <v>661</v>
       </c>
       <c r="E148" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G148" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5409,10 +6064,10 @@
         <v>661</v>
       </c>
       <c r="E149" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G149" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5428,11 +6083,14 @@
       <c r="D150" t="s">
         <v>671</v>
       </c>
+      <c r="E150" t="s">
+        <v>766</v>
+      </c>
       <c r="F150" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G150" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5446,13 +6104,16 @@
         <v>577</v>
       </c>
       <c r="D151" t="s">
-        <v>741</v>
+        <v>738</v>
+      </c>
+      <c r="E151" t="s">
+        <v>776</v>
       </c>
       <c r="F151" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G151" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5468,11 +6129,14 @@
       <c r="D152" t="s">
         <v>670</v>
       </c>
+      <c r="E152" t="s">
+        <v>766</v>
+      </c>
       <c r="F152" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G152" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5489,13 +6153,13 @@
         <v>661</v>
       </c>
       <c r="E153" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="F153" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G153" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5509,13 +6173,16 @@
         <v>583</v>
       </c>
       <c r="D154" t="s">
+        <v>697</v>
+      </c>
+      <c r="E154" t="s">
+        <v>766</v>
+      </c>
+      <c r="F154" t="s">
         <v>700</v>
       </c>
-      <c r="F154" t="s">
-        <v>703</v>
-      </c>
       <c r="G154" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5529,13 +6196,16 @@
         <v>585</v>
       </c>
       <c r="D155" t="s">
-        <v>681</v>
+        <v>680</v>
+      </c>
+      <c r="E155" t="s">
+        <v>766</v>
       </c>
       <c r="F155" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G155" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5551,11 +6221,14 @@
       <c r="D156" t="s">
         <v>666</v>
       </c>
+      <c r="E156" t="s">
+        <v>768</v>
+      </c>
       <c r="F156" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G156" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5569,13 +6242,16 @@
         <v>452</v>
       </c>
       <c r="D157" t="s">
-        <v>700</v>
+        <v>697</v>
+      </c>
+      <c r="E157" t="s">
+        <v>766</v>
       </c>
       <c r="F157" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G157" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5592,13 +6268,13 @@
         <v>661</v>
       </c>
       <c r="E158" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="F158" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G158" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5612,13 +6288,16 @@
         <v>464</v>
       </c>
       <c r="D159" t="s">
-        <v>704</v>
+        <v>701</v>
+      </c>
+      <c r="E159" t="s">
+        <v>766</v>
       </c>
       <c r="F159" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G159" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5634,8 +6313,11 @@
       <c r="D160" t="s">
         <v>660</v>
       </c>
+      <c r="E160" t="s">
+        <v>768</v>
+      </c>
       <c r="G160" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5651,8 +6333,11 @@
       <c r="D161" t="s">
         <v>665</v>
       </c>
+      <c r="E161" t="s">
+        <v>768</v>
+      </c>
       <c r="G161" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5669,10 +6354,10 @@
         <v>661</v>
       </c>
       <c r="E162" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="G162" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5686,13 +6371,13 @@
         <v>462</v>
       </c>
       <c r="D163" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E163" t="s">
         <v>657</v>
       </c>
       <c r="G163" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5708,11 +6393,14 @@
       <c r="D164" t="s">
         <v>665</v>
       </c>
+      <c r="E164" t="s">
+        <v>657</v>
+      </c>
       <c r="F164" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G164" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5728,11 +6416,14 @@
       <c r="D165" t="s">
         <v>668</v>
       </c>
+      <c r="E165" t="s">
+        <v>766</v>
+      </c>
       <c r="F165" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G165" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5748,11 +6439,14 @@
       <c r="D166" t="s">
         <v>669</v>
       </c>
+      <c r="E166" t="s">
+        <v>766</v>
+      </c>
       <c r="F166" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G166" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5766,13 +6460,16 @@
         <v>474</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
+      </c>
+      <c r="E167" t="s">
+        <v>767</v>
       </c>
       <c r="F167" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G167" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5788,11 +6485,14 @@
       <c r="D168" t="s">
         <v>670</v>
       </c>
+      <c r="E168" t="s">
+        <v>766</v>
+      </c>
       <c r="F168" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G168" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5808,11 +6508,14 @@
       <c r="D169" t="s">
         <v>663</v>
       </c>
+      <c r="E169" t="s">
+        <v>766</v>
+      </c>
       <c r="F169" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G169" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5828,11 +6531,14 @@
       <c r="D170" t="s">
         <v>673</v>
       </c>
+      <c r="E170" t="s">
+        <v>657</v>
+      </c>
       <c r="F170" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G170" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5848,11 +6554,14 @@
       <c r="D171" s="3" t="s">
         <v>669</v>
       </c>
+      <c r="E171" t="s">
+        <v>766</v>
+      </c>
       <c r="F171" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G171" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5868,11 +6577,14 @@
       <c r="D172" t="s">
         <v>661</v>
       </c>
+      <c r="E172" t="s">
+        <v>767</v>
+      </c>
       <c r="F172" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G172" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5888,8 +6600,14 @@
       <c r="D173" t="s">
         <v>669</v>
       </c>
+      <c r="E173" t="s">
+        <v>766</v>
+      </c>
+      <c r="F173" t="s">
+        <v>681</v>
+      </c>
       <c r="G173" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5903,13 +6621,16 @@
         <v>488</v>
       </c>
       <c r="D174" t="s">
-        <v>700</v>
+        <v>697</v>
+      </c>
+      <c r="E174" t="s">
+        <v>766</v>
       </c>
       <c r="F174" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G174" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5925,11 +6646,14 @@
       <c r="D175" t="s">
         <v>659</v>
       </c>
+      <c r="E175" t="s">
+        <v>766</v>
+      </c>
       <c r="F175" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G175" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5945,11 +6669,14 @@
       <c r="D176" t="s">
         <v>667</v>
       </c>
+      <c r="E176" t="s">
+        <v>771</v>
+      </c>
       <c r="F176" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G176" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5965,11 +6692,14 @@
       <c r="D177" t="s">
         <v>671</v>
       </c>
+      <c r="E177" t="s">
+        <v>766</v>
+      </c>
       <c r="F177" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G177" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5985,11 +6715,14 @@
       <c r="D178" t="s">
         <v>661</v>
       </c>
+      <c r="E178" t="s">
+        <v>772</v>
+      </c>
       <c r="F178" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G178" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6005,11 +6738,14 @@
       <c r="D179" t="s">
         <v>661</v>
       </c>
+      <c r="E179" t="s">
+        <v>767</v>
+      </c>
       <c r="F179" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G179" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6023,13 +6759,16 @@
         <v>500</v>
       </c>
       <c r="D180" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="E180" t="s">
+        <v>766</v>
       </c>
       <c r="F180" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G180" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -6045,11 +6784,14 @@
       <c r="D181" t="s">
         <v>673</v>
       </c>
+      <c r="E181" t="s">
+        <v>657</v>
+      </c>
       <c r="F181" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G181" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6065,11 +6807,14 @@
       <c r="D182" t="s">
         <v>661</v>
       </c>
+      <c r="E182" t="s">
+        <v>767</v>
+      </c>
       <c r="F182" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G182" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6085,11 +6830,14 @@
       <c r="D183" t="s">
         <v>671</v>
       </c>
+      <c r="E183" t="s">
+        <v>766</v>
+      </c>
       <c r="F183" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G183" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -6105,8 +6853,14 @@
       <c r="D184" t="s">
         <v>661</v>
       </c>
+      <c r="E184" t="s">
+        <v>767</v>
+      </c>
+      <c r="F184" t="s">
+        <v>681</v>
+      </c>
       <c r="G184" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6122,11 +6876,14 @@
       <c r="D185" t="s">
         <v>670</v>
       </c>
+      <c r="E185" t="s">
+        <v>766</v>
+      </c>
       <c r="F185" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G185" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -6142,11 +6899,14 @@
       <c r="D186" t="s">
         <v>661</v>
       </c>
+      <c r="E186" t="s">
+        <v>767</v>
+      </c>
       <c r="F186" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G186" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -6162,11 +6922,14 @@
       <c r="D187" t="s">
         <v>669</v>
       </c>
+      <c r="E187" t="s">
+        <v>766</v>
+      </c>
       <c r="F187" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G187" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -6182,11 +6945,14 @@
       <c r="D188" t="s">
         <v>671</v>
       </c>
+      <c r="E188" t="s">
+        <v>766</v>
+      </c>
       <c r="F188" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G188" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6203,13 +6969,13 @@
         <v>661</v>
       </c>
       <c r="E189" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="F189" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G189" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -6226,10 +6992,13 @@
         <v>661</v>
       </c>
       <c r="E190" t="s">
-        <v>676</v>
+        <v>772</v>
+      </c>
+      <c r="F190" t="s">
+        <v>681</v>
       </c>
       <c r="G190" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6246,13 +7015,13 @@
         <v>661</v>
       </c>
       <c r="E191" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="F191" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G191" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6272,10 +7041,10 @@
         <v>662</v>
       </c>
       <c r="F192" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G192" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6291,11 +7060,14 @@
       <c r="D193" t="s">
         <v>659</v>
       </c>
+      <c r="E193" t="s">
+        <v>766</v>
+      </c>
       <c r="F193" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G193" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6309,16 +7081,16 @@
         <v>387</v>
       </c>
       <c r="D194" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E194" t="s">
         <v>657</v>
       </c>
       <c r="F194" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G194" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6332,16 +7104,16 @@
         <v>389</v>
       </c>
       <c r="D195" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E195" t="s">
         <v>657</v>
       </c>
       <c r="F195" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G195" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6357,8 +7129,11 @@
       <c r="D196" t="s">
         <v>663</v>
       </c>
+      <c r="E196" t="s">
+        <v>770</v>
+      </c>
       <c r="G196" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -6372,13 +7147,16 @@
         <v>393</v>
       </c>
       <c r="D197" t="s">
-        <v>709</v>
+        <v>706</v>
+      </c>
+      <c r="E197" t="s">
+        <v>770</v>
       </c>
       <c r="F197" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G197" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6394,11 +7172,14 @@
       <c r="D198" t="s">
         <v>661</v>
       </c>
+      <c r="E198" t="s">
+        <v>767</v>
+      </c>
       <c r="F198" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G198" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6415,13 +7196,13 @@
         <v>661</v>
       </c>
       <c r="E199" t="s">
-        <v>693</v>
+        <v>772</v>
       </c>
       <c r="F199" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G199" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6437,11 +7218,14 @@
       <c r="D200" t="s">
         <v>661</v>
       </c>
+      <c r="E200" t="s">
+        <v>767</v>
+      </c>
       <c r="F200" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G200" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6457,11 +7241,14 @@
       <c r="D201" s="2" t="s">
         <v>661</v>
       </c>
+      <c r="E201" t="s">
+        <v>767</v>
+      </c>
       <c r="F201" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G201" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6477,8 +7264,14 @@
       <c r="D202" t="s">
         <v>659</v>
       </c>
+      <c r="E202" t="s">
+        <v>766</v>
+      </c>
+      <c r="F202" t="s">
+        <v>681</v>
+      </c>
       <c r="G202" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6492,13 +7285,16 @@
         <v>409</v>
       </c>
       <c r="D203" t="s">
-        <v>727</v>
+        <v>724</v>
+      </c>
+      <c r="E203" t="s">
+        <v>657</v>
       </c>
       <c r="F203" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G203" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6514,11 +7310,14 @@
       <c r="D204" t="s">
         <v>663</v>
       </c>
+      <c r="E204" t="s">
+        <v>766</v>
+      </c>
       <c r="F204" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G204" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6532,13 +7331,16 @@
         <v>415</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>657</v>
       </c>
       <c r="F205" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G205" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6552,10 +7354,16 @@
         <v>417</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
+      </c>
+      <c r="E206" t="s">
+        <v>766</v>
+      </c>
+      <c r="F206" t="s">
+        <v>681</v>
       </c>
       <c r="G206" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6571,8 +7379,14 @@
       <c r="D207" s="3" t="s">
         <v>663</v>
       </c>
+      <c r="E207" t="s">
+        <v>766</v>
+      </c>
+      <c r="F207" t="s">
+        <v>681</v>
+      </c>
       <c r="G207" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6586,10 +7400,16 @@
         <v>421</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
+      </c>
+      <c r="E208" t="s">
+        <v>766</v>
+      </c>
+      <c r="F208" t="s">
+        <v>681</v>
       </c>
       <c r="G208" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6605,8 +7425,14 @@
       <c r="D209" s="3" t="s">
         <v>659</v>
       </c>
+      <c r="E209" t="s">
+        <v>766</v>
+      </c>
+      <c r="F209" t="s">
+        <v>681</v>
+      </c>
       <c r="G209" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6622,8 +7448,14 @@
       <c r="D210" s="3" t="s">
         <v>668</v>
       </c>
+      <c r="E210" t="s">
+        <v>766</v>
+      </c>
+      <c r="F210" t="s">
+        <v>681</v>
+      </c>
       <c r="G210" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6637,10 +7469,16 @@
         <v>427</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
+      </c>
+      <c r="E211" t="s">
+        <v>767</v>
+      </c>
+      <c r="F211" t="s">
+        <v>681</v>
       </c>
       <c r="G211" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6656,8 +7494,14 @@
       <c r="D212" t="s">
         <v>661</v>
       </c>
+      <c r="E212" t="s">
+        <v>767</v>
+      </c>
+      <c r="F212" t="s">
+        <v>681</v>
+      </c>
       <c r="G212" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6673,8 +7517,14 @@
       <c r="D213" t="s">
         <v>669</v>
       </c>
+      <c r="E213" t="s">
+        <v>766</v>
+      </c>
+      <c r="F213" t="s">
+        <v>681</v>
+      </c>
       <c r="G213" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6691,10 +7541,10 @@
         <v>661</v>
       </c>
       <c r="E214" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G214" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6710,8 +7560,14 @@
       <c r="D215" t="s">
         <v>669</v>
       </c>
+      <c r="E215" t="s">
+        <v>766</v>
+      </c>
+      <c r="F215" t="s">
+        <v>681</v>
+      </c>
       <c r="G215" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6727,8 +7583,14 @@
       <c r="D216" t="s">
         <v>669</v>
       </c>
+      <c r="E216" t="s">
+        <v>766</v>
+      </c>
+      <c r="F216" t="s">
+        <v>681</v>
+      </c>
       <c r="G216" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6742,10 +7604,16 @@
         <v>439</v>
       </c>
       <c r="D217" t="s">
-        <v>700</v>
+        <v>697</v>
+      </c>
+      <c r="E217" t="s">
+        <v>766</v>
+      </c>
+      <c r="F217" t="s">
+        <v>681</v>
       </c>
       <c r="G217" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6761,8 +7629,11 @@
       <c r="D218" t="s">
         <v>670</v>
       </c>
+      <c r="E218" t="s">
+        <v>766</v>
+      </c>
       <c r="G218" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6778,8 +7649,14 @@
       <c r="D219" t="s">
         <v>669</v>
       </c>
+      <c r="E219" t="s">
+        <v>766</v>
+      </c>
+      <c r="F219" t="s">
+        <v>681</v>
+      </c>
       <c r="G219" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6796,10 +7673,13 @@
         <v>661</v>
       </c>
       <c r="E220" t="s">
-        <v>676</v>
+        <v>772</v>
+      </c>
+      <c r="F220" t="s">
+        <v>681</v>
       </c>
       <c r="G220" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6813,10 +7693,16 @@
         <v>446</v>
       </c>
       <c r="D221" t="s">
-        <v>756</v>
+        <v>753</v>
+      </c>
+      <c r="E221" t="s">
+        <v>766</v>
+      </c>
+      <c r="F221" t="s">
+        <v>681</v>
       </c>
       <c r="G221" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -6830,13 +7716,16 @@
         <v>448</v>
       </c>
       <c r="D222" t="s">
-        <v>700</v>
+        <v>697</v>
+      </c>
+      <c r="E222" t="s">
+        <v>766</v>
       </c>
       <c r="F222" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G222" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -6852,8 +7741,14 @@
       <c r="D223" t="s">
         <v>661</v>
       </c>
+      <c r="E223" t="s">
+        <v>767</v>
+      </c>
+      <c r="F223" t="s">
+        <v>681</v>
+      </c>
       <c r="G223" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -6869,8 +7764,14 @@
       <c r="D224" t="s">
         <v>672</v>
       </c>
+      <c r="E224" t="s">
+        <v>766</v>
+      </c>
+      <c r="F224" t="s">
+        <v>672</v>
+      </c>
       <c r="G224" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -6887,13 +7788,13 @@
         <v>661</v>
       </c>
       <c r="E225" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="F225" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G225" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6907,16 +7808,16 @@
         <v>315</v>
       </c>
       <c r="D226" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E226" t="s">
         <v>657</v>
       </c>
       <c r="F226" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G226" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -6930,13 +7831,16 @@
         <v>325</v>
       </c>
       <c r="D227" t="s">
-        <v>706</v>
+        <v>703</v>
+      </c>
+      <c r="E227" t="s">
+        <v>766</v>
       </c>
       <c r="F227" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G227" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6952,8 +7856,11 @@
       <c r="D228" t="s">
         <v>670</v>
       </c>
+      <c r="E228" t="s">
+        <v>766</v>
+      </c>
       <c r="G228" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6970,10 +7877,10 @@
         <v>661</v>
       </c>
       <c r="E229" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G229" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6989,8 +7896,11 @@
       <c r="D230" t="s">
         <v>663</v>
       </c>
+      <c r="E230" t="s">
+        <v>766</v>
+      </c>
       <c r="G230" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -7004,13 +7914,13 @@
         <v>323</v>
       </c>
       <c r="D231" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E231" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G231" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -7026,8 +7936,11 @@
       <c r="D232" t="s">
         <v>661</v>
       </c>
+      <c r="E232" t="s">
+        <v>767</v>
+      </c>
       <c r="G232" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -7044,13 +7957,13 @@
         <v>661</v>
       </c>
       <c r="E233" t="s">
-        <v>693</v>
+        <v>772</v>
       </c>
       <c r="F233" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G233" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7067,13 +7980,13 @@
         <v>661</v>
       </c>
       <c r="E234" t="s">
-        <v>693</v>
+        <v>772</v>
       </c>
       <c r="F234" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G234" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7089,11 +8002,14 @@
       <c r="D235" t="s">
         <v>661</v>
       </c>
+      <c r="E235" t="s">
+        <v>767</v>
+      </c>
       <c r="F235" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G235" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -7109,11 +8025,14 @@
       <c r="D236" s="2" t="s">
         <v>669</v>
       </c>
+      <c r="E236" t="s">
+        <v>766</v>
+      </c>
       <c r="F236" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G236" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -7127,13 +8046,16 @@
         <v>337</v>
       </c>
       <c r="D237" t="s">
-        <v>729</v>
+        <v>726</v>
+      </c>
+      <c r="E237" t="s">
+        <v>766</v>
       </c>
       <c r="F237" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G237" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -7149,11 +8071,14 @@
       <c r="D238" t="s">
         <v>658</v>
       </c>
+      <c r="E238" t="s">
+        <v>768</v>
+      </c>
       <c r="F238" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G238" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7169,11 +8094,14 @@
       <c r="D239" t="s">
         <v>667</v>
       </c>
+      <c r="E239" t="s">
+        <v>771</v>
+      </c>
       <c r="F239" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G239" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -7189,11 +8117,14 @@
       <c r="D240" s="3" t="s">
         <v>671</v>
       </c>
+      <c r="E240" t="s">
+        <v>766</v>
+      </c>
       <c r="F240" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G240" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7209,8 +8140,14 @@
       <c r="D241" t="s">
         <v>661</v>
       </c>
+      <c r="E241" t="s">
+        <v>767</v>
+      </c>
+      <c r="F241" t="s">
+        <v>681</v>
+      </c>
       <c r="G241" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7224,10 +8161,16 @@
         <v>348</v>
       </c>
       <c r="D242" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="E242" t="s">
+        <v>766</v>
+      </c>
+      <c r="F242" t="s">
+        <v>681</v>
       </c>
       <c r="G242" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7243,8 +8186,14 @@
       <c r="D243" t="s">
         <v>663</v>
       </c>
+      <c r="E243" t="s">
+        <v>766</v>
+      </c>
+      <c r="F243" t="s">
+        <v>681</v>
+      </c>
       <c r="G243" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -7260,8 +8209,14 @@
       <c r="D244" t="s">
         <v>669</v>
       </c>
+      <c r="E244" t="s">
+        <v>766</v>
+      </c>
+      <c r="F244" t="s">
+        <v>681</v>
+      </c>
       <c r="G244" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -7277,8 +8232,14 @@
       <c r="D245" t="s">
         <v>661</v>
       </c>
+      <c r="E245" t="s">
+        <v>767</v>
+      </c>
+      <c r="F245" t="s">
+        <v>681</v>
+      </c>
       <c r="G245" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7294,8 +8255,14 @@
       <c r="D246" t="s">
         <v>661</v>
       </c>
+      <c r="E246" t="s">
+        <v>767</v>
+      </c>
+      <c r="F246" t="s">
+        <v>681</v>
+      </c>
       <c r="G246" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7311,8 +8278,14 @@
       <c r="D247" t="s">
         <v>661</v>
       </c>
+      <c r="E247" t="s">
+        <v>767</v>
+      </c>
+      <c r="F247" t="s">
+        <v>681</v>
+      </c>
       <c r="G247" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7328,8 +8301,14 @@
       <c r="D248" t="s">
         <v>666</v>
       </c>
+      <c r="E248" t="s">
+        <v>657</v>
+      </c>
+      <c r="F248" t="s">
+        <v>711</v>
+      </c>
       <c r="G248" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7345,8 +8324,14 @@
       <c r="D249" t="s">
         <v>673</v>
       </c>
+      <c r="E249" t="s">
+        <v>657</v>
+      </c>
+      <c r="F249" t="s">
+        <v>742</v>
+      </c>
       <c r="G249" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7362,8 +8347,14 @@
       <c r="D250" t="s">
         <v>661</v>
       </c>
+      <c r="E250" t="s">
+        <v>767</v>
+      </c>
+      <c r="F250" t="s">
+        <v>681</v>
+      </c>
       <c r="G250" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7379,8 +8370,14 @@
       <c r="D251" t="s">
         <v>661</v>
       </c>
+      <c r="E251" t="s">
+        <v>767</v>
+      </c>
+      <c r="F251" t="s">
+        <v>681</v>
+      </c>
       <c r="G251" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -7396,8 +8393,14 @@
       <c r="D252" t="s">
         <v>661</v>
       </c>
+      <c r="E252" t="s">
+        <v>772</v>
+      </c>
+      <c r="F252" t="s">
+        <v>681</v>
+      </c>
       <c r="G252" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7413,11 +8416,14 @@
       <c r="D253" t="s">
         <v>670</v>
       </c>
+      <c r="E253" t="s">
+        <v>766</v>
+      </c>
       <c r="F253" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G253" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7433,8 +8439,14 @@
       <c r="D254" t="s">
         <v>663</v>
       </c>
+      <c r="E254" t="s">
+        <v>766</v>
+      </c>
+      <c r="F254" t="s">
+        <v>681</v>
+      </c>
       <c r="G254" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7448,10 +8460,16 @@
         <v>374</v>
       </c>
       <c r="D255" t="s">
-        <v>758</v>
+        <v>755</v>
+      </c>
+      <c r="E255" t="s">
+        <v>776</v>
+      </c>
+      <c r="F255" t="s">
+        <v>681</v>
       </c>
       <c r="G255" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7465,10 +8483,16 @@
         <v>376</v>
       </c>
       <c r="D256" t="s">
-        <v>759</v>
+        <v>756</v>
+      </c>
+      <c r="E256" t="s">
+        <v>766</v>
+      </c>
+      <c r="F256" t="s">
+        <v>681</v>
       </c>
       <c r="G256" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7484,11 +8508,14 @@
       <c r="D257" t="s">
         <v>661</v>
       </c>
+      <c r="E257" t="s">
+        <v>767</v>
+      </c>
       <c r="F257" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G257" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7505,10 +8532,13 @@
         <v>669</v>
       </c>
       <c r="E258" t="s">
-        <v>684</v>
+        <v>682</v>
+      </c>
+      <c r="F258" t="s">
+        <v>709</v>
       </c>
       <c r="G258" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7525,13 +8555,13 @@
         <v>661</v>
       </c>
       <c r="E259" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="F259" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G259" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7547,11 +8577,14 @@
       <c r="D260" t="s">
         <v>665</v>
       </c>
+      <c r="E260" t="s">
+        <v>768</v>
+      </c>
       <c r="F260" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G260" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7565,13 +8598,16 @@
         <v>255</v>
       </c>
       <c r="D261" t="s">
+        <v>697</v>
+      </c>
+      <c r="E261" t="s">
+        <v>766</v>
+      </c>
+      <c r="F261" t="s">
         <v>700</v>
       </c>
-      <c r="F261" t="s">
-        <v>703</v>
-      </c>
       <c r="G261" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7588,10 +8624,10 @@
         <v>661</v>
       </c>
       <c r="E262" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G262" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7607,8 +8643,11 @@
       <c r="D263" t="s">
         <v>663</v>
       </c>
+      <c r="E263" t="s">
+        <v>770</v>
+      </c>
       <c r="G263" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7624,8 +8663,11 @@
       <c r="D264" t="s">
         <v>660</v>
       </c>
+      <c r="E264" t="s">
+        <v>768</v>
+      </c>
       <c r="G264" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -7641,8 +8683,11 @@
       <c r="D265" t="s">
         <v>664</v>
       </c>
+      <c r="E265" t="s">
+        <v>776</v>
+      </c>
       <c r="G265" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -7658,8 +8703,14 @@
       <c r="D266" t="s">
         <v>661</v>
       </c>
+      <c r="E266" t="s">
+        <v>767</v>
+      </c>
+      <c r="F266" t="s">
+        <v>681</v>
+      </c>
       <c r="G266" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -7675,11 +8726,14 @@
       <c r="D267" t="s">
         <v>671</v>
       </c>
+      <c r="E267" t="s">
+        <v>766</v>
+      </c>
       <c r="F267" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G267" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -7695,11 +8749,14 @@
       <c r="D268" t="s">
         <v>661</v>
       </c>
+      <c r="E268" t="s">
+        <v>767</v>
+      </c>
       <c r="F268" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G268" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -7715,11 +8772,14 @@
       <c r="D269" s="2" t="s">
         <v>661</v>
       </c>
+      <c r="E269" t="s">
+        <v>767</v>
+      </c>
       <c r="F269" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G269" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -7733,13 +8793,16 @@
         <v>267</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>773</v>
       </c>
       <c r="F270" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G270" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -7755,11 +8818,14 @@
       <c r="D271" s="2" t="s">
         <v>660</v>
       </c>
+      <c r="E271" s="2" t="s">
+        <v>768</v>
+      </c>
       <c r="F271" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G271" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -7773,13 +8839,16 @@
         <v>271</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
+      </c>
+      <c r="E272" t="s">
+        <v>766</v>
       </c>
       <c r="F272" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G272" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -7793,10 +8862,16 @@
         <v>274</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
+      </c>
+      <c r="E273" t="s">
+        <v>766</v>
+      </c>
+      <c r="F273" t="s">
+        <v>681</v>
       </c>
       <c r="G273" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -7810,10 +8885,16 @@
         <v>276</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F274" t="s">
+        <v>681</v>
       </c>
       <c r="G274" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -7827,10 +8908,16 @@
         <v>280</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="E275" t="s">
+        <v>766</v>
+      </c>
+      <c r="F275" t="s">
+        <v>681</v>
       </c>
       <c r="G275" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -7844,10 +8931,16 @@
         <v>282</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
+      </c>
+      <c r="E276" t="s">
+        <v>766</v>
+      </c>
+      <c r="F276" t="s">
+        <v>681</v>
       </c>
       <c r="G276" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7863,8 +8956,14 @@
       <c r="D277" s="2" t="s">
         <v>669</v>
       </c>
+      <c r="E277" t="s">
+        <v>766</v>
+      </c>
+      <c r="F277" t="s">
+        <v>681</v>
+      </c>
       <c r="G277" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -7881,7 +8980,7 @@
         <v>667</v>
       </c>
       <c r="G278" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -7897,8 +8996,14 @@
       <c r="D279" t="s">
         <v>661</v>
       </c>
+      <c r="E279" t="s">
+        <v>767</v>
+      </c>
+      <c r="F279" t="s">
+        <v>681</v>
+      </c>
       <c r="G279" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -7914,8 +9019,14 @@
       <c r="D280" t="s">
         <v>671</v>
       </c>
+      <c r="E280" t="s">
+        <v>766</v>
+      </c>
+      <c r="F280" t="s">
+        <v>681</v>
+      </c>
       <c r="G280" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -7931,8 +9042,14 @@
       <c r="D281" t="s">
         <v>672</v>
       </c>
+      <c r="E281" t="s">
+        <v>766</v>
+      </c>
+      <c r="F281" t="s">
+        <v>681</v>
+      </c>
       <c r="G281" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -7946,10 +9063,16 @@
         <v>297</v>
       </c>
       <c r="D282" t="s">
-        <v>717</v>
+        <v>714</v>
+      </c>
+      <c r="E282" t="s">
+        <v>767</v>
+      </c>
+      <c r="F282" t="s">
+        <v>681</v>
       </c>
       <c r="G282" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -7965,11 +9088,14 @@
       <c r="D283" t="s">
         <v>661</v>
       </c>
+      <c r="E283" t="s">
+        <v>767</v>
+      </c>
       <c r="F283" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G283" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -7985,11 +9111,14 @@
       <c r="D284" t="s">
         <v>669</v>
       </c>
+      <c r="E284" t="s">
+        <v>766</v>
+      </c>
       <c r="F284" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G284" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -8005,8 +9134,14 @@
       <c r="D285" t="s">
         <v>667</v>
       </c>
+      <c r="E285" t="s">
+        <v>771</v>
+      </c>
+      <c r="F285" t="s">
+        <v>681</v>
+      </c>
       <c r="G285" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -8020,10 +9155,16 @@
         <v>299</v>
       </c>
       <c r="D286" t="s">
-        <v>764</v>
+        <v>761</v>
+      </c>
+      <c r="E286" t="s">
+        <v>766</v>
+      </c>
+      <c r="F286" t="s">
+        <v>681</v>
       </c>
       <c r="G286" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -8037,10 +9178,16 @@
         <v>303</v>
       </c>
       <c r="D287" t="s">
-        <v>763</v>
+        <v>760</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>711</v>
       </c>
       <c r="G287" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -8054,10 +9201,16 @@
         <v>301</v>
       </c>
       <c r="D288" t="s">
-        <v>752</v>
+        <v>749</v>
+      </c>
+      <c r="E288" t="s">
+        <v>766</v>
+      </c>
+      <c r="F288" t="s">
+        <v>681</v>
       </c>
       <c r="G288" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -8074,10 +9227,13 @@
         <v>661</v>
       </c>
       <c r="E289" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="F289" t="s">
+        <v>681</v>
       </c>
       <c r="G289" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -8093,8 +9249,14 @@
       <c r="D290" t="s">
         <v>671</v>
       </c>
+      <c r="E290" t="s">
+        <v>766</v>
+      </c>
+      <c r="F290" t="s">
+        <v>681</v>
+      </c>
       <c r="G290" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -8111,13 +9273,13 @@
         <v>661</v>
       </c>
       <c r="E291" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="F291" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G291" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -8131,10 +9293,16 @@
         <v>257</v>
       </c>
       <c r="D292" t="s">
-        <v>761</v>
+        <v>758</v>
+      </c>
+      <c r="E292" t="s">
+        <v>767</v>
+      </c>
+      <c r="F292" t="s">
+        <v>681</v>
       </c>
       <c r="G292" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -8150,8 +9318,14 @@
       <c r="D293" t="s">
         <v>661</v>
       </c>
+      <c r="E293" t="s">
+        <v>767</v>
+      </c>
+      <c r="F293" t="s">
+        <v>681</v>
+      </c>
       <c r="G293" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -8165,13 +9339,16 @@
         <v>176</v>
       </c>
       <c r="D294" t="s">
-        <v>701</v>
+        <v>698</v>
+      </c>
+      <c r="E294" t="s">
+        <v>770</v>
       </c>
       <c r="F294" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G294" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -8185,13 +9362,16 @@
         <v>186</v>
       </c>
       <c r="D295" t="s">
-        <v>700</v>
+        <v>697</v>
+      </c>
+      <c r="E295" t="s">
+        <v>766</v>
       </c>
       <c r="F295" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G295" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -8207,11 +9387,14 @@
       <c r="D296" t="s">
         <v>667</v>
       </c>
+      <c r="E296" t="s">
+        <v>771</v>
+      </c>
       <c r="F296" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G296" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -8227,11 +9410,14 @@
       <c r="D297" t="s">
         <v>665</v>
       </c>
+      <c r="E297" s="2" t="s">
+        <v>768</v>
+      </c>
       <c r="F297" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G297" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -8247,8 +9433,11 @@
       <c r="D298" t="s">
         <v>412</v>
       </c>
+      <c r="E298" s="2" t="s">
+        <v>775</v>
+      </c>
       <c r="G298" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -8264,8 +9453,11 @@
       <c r="D299" t="s">
         <v>667</v>
       </c>
+      <c r="E299" t="s">
+        <v>768</v>
+      </c>
       <c r="G299" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -8279,13 +9471,16 @@
         <v>188</v>
       </c>
       <c r="D300" t="s">
-        <v>681</v>
+        <v>680</v>
+      </c>
+      <c r="E300" t="s">
+        <v>774</v>
       </c>
       <c r="F300" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G300" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -8301,11 +9496,14 @@
       <c r="D301" t="s">
         <v>661</v>
       </c>
+      <c r="E301" t="s">
+        <v>767</v>
+      </c>
       <c r="F301" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G301" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -8319,13 +9517,16 @@
         <v>192</v>
       </c>
       <c r="D302" t="s">
-        <v>701</v>
+        <v>698</v>
+      </c>
+      <c r="E302" t="s">
+        <v>766</v>
       </c>
       <c r="F302" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G302" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -8341,11 +9542,14 @@
       <c r="D303" t="s">
         <v>668</v>
       </c>
+      <c r="E303" t="s">
+        <v>766</v>
+      </c>
       <c r="F303" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G303" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -8361,11 +9565,14 @@
       <c r="D304" s="2" t="s">
         <v>671</v>
       </c>
+      <c r="E304" t="s">
+        <v>766</v>
+      </c>
       <c r="F304" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G304" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -8379,10 +9586,13 @@
         <v>198</v>
       </c>
       <c r="D305" t="s">
-        <v>731</v>
+        <v>728</v>
+      </c>
+      <c r="E305" t="s">
+        <v>766</v>
       </c>
       <c r="G305" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -8398,11 +9608,14 @@
       <c r="D306" t="s">
         <v>660</v>
       </c>
+      <c r="E306" t="s">
+        <v>768</v>
+      </c>
       <c r="F306" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G306" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -8416,13 +9629,16 @@
         <v>202</v>
       </c>
       <c r="D307" t="s">
-        <v>733</v>
+        <v>730</v>
+      </c>
+      <c r="E307" t="s">
+        <v>657</v>
       </c>
       <c r="F307" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G307" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -8438,11 +9654,14 @@
       <c r="D308" t="s">
         <v>672</v>
       </c>
+      <c r="E308" t="s">
+        <v>766</v>
+      </c>
       <c r="F308" t="s">
         <v>672</v>
       </c>
       <c r="G308" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -8458,8 +9677,14 @@
       <c r="D309" t="s">
         <v>661</v>
       </c>
+      <c r="E309" t="s">
+        <v>767</v>
+      </c>
+      <c r="F309" t="s">
+        <v>681</v>
+      </c>
       <c r="G309" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -8476,10 +9701,13 @@
         <v>661</v>
       </c>
       <c r="E310" t="s">
-        <v>676</v>
+        <v>772</v>
+      </c>
+      <c r="F310" t="s">
+        <v>681</v>
       </c>
       <c r="G310" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -8496,10 +9724,10 @@
         <v>661</v>
       </c>
       <c r="E311" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G311" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -8515,8 +9743,11 @@
       <c r="D312" t="s">
         <v>660</v>
       </c>
+      <c r="E312" t="s">
+        <v>768</v>
+      </c>
       <c r="G312" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -8532,8 +9763,14 @@
       <c r="D313" t="s">
         <v>661</v>
       </c>
+      <c r="E313" t="s">
+        <v>767</v>
+      </c>
+      <c r="F313" t="s">
+        <v>681</v>
+      </c>
       <c r="G313" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -8549,8 +9786,14 @@
       <c r="D314" t="s">
         <v>663</v>
       </c>
+      <c r="E314" t="s">
+        <v>766</v>
+      </c>
+      <c r="F314" t="s">
+        <v>681</v>
+      </c>
       <c r="G314" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -8566,8 +9809,11 @@
       <c r="D315" t="s">
         <v>667</v>
       </c>
+      <c r="E315" t="s">
+        <v>771</v>
+      </c>
       <c r="G315" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -8583,8 +9829,14 @@
       <c r="D316" t="s">
         <v>669</v>
       </c>
+      <c r="E316" t="s">
+        <v>766</v>
+      </c>
+      <c r="F316" t="s">
+        <v>681</v>
+      </c>
       <c r="G316" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -8598,10 +9850,13 @@
         <v>222</v>
       </c>
       <c r="D317" t="s">
-        <v>765</v>
+        <v>762</v>
+      </c>
+      <c r="E317" t="s">
+        <v>771</v>
       </c>
       <c r="G317" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -8617,8 +9872,14 @@
       <c r="D318" t="s">
         <v>667</v>
       </c>
+      <c r="E318" t="s">
+        <v>771</v>
+      </c>
+      <c r="F318" t="s">
+        <v>681</v>
+      </c>
       <c r="G318" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -8632,10 +9893,16 @@
         <v>236</v>
       </c>
       <c r="D319" t="s">
-        <v>759</v>
+        <v>756</v>
+      </c>
+      <c r="E319" t="s">
+        <v>767</v>
+      </c>
+      <c r="F319" t="s">
+        <v>681</v>
       </c>
       <c r="G319" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -8651,8 +9918,11 @@
       <c r="D320" t="s">
         <v>667</v>
       </c>
+      <c r="E320" t="s">
+        <v>771</v>
+      </c>
       <c r="G320" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -8668,8 +9938,11 @@
       <c r="D321" t="s">
         <v>669</v>
       </c>
+      <c r="E321" t="s">
+        <v>766</v>
+      </c>
       <c r="G321" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -8683,10 +9956,16 @@
         <v>230</v>
       </c>
       <c r="D322" t="s">
-        <v>700</v>
+        <v>697</v>
+      </c>
+      <c r="E322" t="s">
+        <v>766</v>
+      </c>
+      <c r="F322" t="s">
+        <v>681</v>
       </c>
       <c r="G322" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -8702,8 +9981,14 @@
       <c r="D323" t="s">
         <v>663</v>
       </c>
+      <c r="E323" t="s">
+        <v>766</v>
+      </c>
+      <c r="F323" t="s">
+        <v>681</v>
+      </c>
       <c r="G323" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -8717,10 +10002,16 @@
         <v>234</v>
       </c>
       <c r="D324" t="s">
-        <v>700</v>
+        <v>697</v>
+      </c>
+      <c r="E324" t="s">
+        <v>766</v>
+      </c>
+      <c r="F324" t="s">
+        <v>681</v>
       </c>
       <c r="G324" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -8734,10 +10025,16 @@
         <v>238</v>
       </c>
       <c r="D325" t="s">
-        <v>766</v>
+        <v>763</v>
+      </c>
+      <c r="E325" t="s">
+        <v>657</v>
+      </c>
+      <c r="F325" t="s">
+        <v>683</v>
       </c>
       <c r="G325" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -8751,10 +10048,16 @@
         <v>240</v>
       </c>
       <c r="D326" t="s">
-        <v>767</v>
+        <v>764</v>
+      </c>
+      <c r="E326" t="s">
+        <v>766</v>
+      </c>
+      <c r="F326" t="s">
+        <v>681</v>
       </c>
       <c r="G326" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
